--- a/Barroc IT - Documentatie/Steven/Use Case Template.xlsx
+++ b/Barroc IT - Documentatie/Steven/Use Case Template.xlsx
@@ -16,32 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>naam</t>
   </si>
   <si>
-    <t>versie</t>
-  </si>
-  <si>
     <t>Auteur</t>
   </si>
   <si>
     <t>Pre-conditie</t>
   </si>
   <si>
-    <t>beschrijving</t>
-  </si>
-  <si>
-    <t>post-conditie</t>
-  </si>
-  <si>
-    <t>uitzonderingen</t>
-  </si>
-  <si>
-    <t>niet-functionele eisen</t>
-  </si>
-  <si>
     <t>toevoegen, wijzigen of verwijderen</t>
   </si>
   <si>
@@ -52,6 +37,15 @@
   </si>
   <si>
     <t>De gebruiker is ingelogd, en is klaar voor gebruik</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>De klant moet zijn gegevens gegeven hebben</t>
+  </si>
+  <si>
+    <t>De aanpassingen zijn aangebracht</t>
   </si>
   <si>
     <t>De gebruiker selecteert een categorie
@@ -66,7 +60,37 @@
 De gebruiker klikt op een Klant
 De gebruiker klikt op verwijderen
 er komt een waarschuwing of je zeker bent om het te verwijderen
-de gebruiker klikt op 'ja' en de klant is verwijdert van de database</t>
+de gebruiker klikt op 'ja' en de klant is verwijdert van de database.</t>
+  </si>
+  <si>
+    <t>Inloggen</t>
+  </si>
+  <si>
+    <t>Admin, Development, Sales, Finance, Database</t>
+  </si>
+  <si>
+    <t>De gebruiker heeft een account aangemaakt.</t>
+  </si>
+  <si>
+    <t>De gebruiker voert zijn gebruikersnaam en wachtwoord in en klikt op 'Inloggen'</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Versie</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>Uitzonderingen</t>
+  </si>
+  <si>
+    <t>Niet-functionele eisen</t>
+  </si>
+  <si>
+    <t>Post-conditie</t>
   </si>
 </sst>
 </file>
@@ -422,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F12:G49"/>
+  <dimension ref="F12:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,179 +460,207 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="12" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="6:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F16" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" ht="270" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="1" t="s">
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="1" t="s">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F46" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F47" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
